--- a/Docs/기능요구사항.xlsx
+++ b/Docs/기능요구사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\Github\Team Project\Design_pattern_Java\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\GitHub\Team project\Design_pattern_Java\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF4E29-ECB6-48AE-A1D8-74C8DE567421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036D072-629D-43A8-AE1E-D6AFE7348F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
+    <workbookView xWindow="38280" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
   <sheets>
     <sheet name="색 분류" sheetId="2" r:id="rId1"/>
@@ -41,21 +41,11 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7CC751C1-88BE-4E01-AE84-924DCB8D206A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="128"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -70,21 +60,11 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{50920224-2B1E-45A4-98A4-763D8B5AA82B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="128"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1414,18 +1394,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1483,13 +1463,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1556,12 +1536,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1983,7 +1957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2188,67 +2162,100 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,52 +2264,37 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,52 +2303,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2713,23 +2684,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5023497-C90F-439D-A4EA-B0F186C397DA}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="61" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="60" t="s">
@@ -2739,389 +2710,389 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="110" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="77"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="99"/>
+      <c r="D3" s="111"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="77"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="99"/>
+      <c r="D4" s="111"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="77"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="99"/>
+      <c r="D5" s="111"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="77"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="99"/>
+      <c r="D6" s="111"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="78"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="112"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A8" s="54" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="71"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="105"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="56" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="72"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="103"/>
+      <c r="D9" s="106"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="72"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="103"/>
+      <c r="D10" s="106"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="73"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="104"/>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="70" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="71"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="71"/>
+      <c r="D13" s="105"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="72"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="72"/>
+      <c r="D14" s="106"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="72"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="72"/>
+      <c r="D15" s="106"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="72"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="72"/>
+      <c r="D16" s="106"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="72"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="106"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="72"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="72"/>
+      <c r="D18" s="106"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="73"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="73"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="75"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="101"/>
+      <c r="D21" s="109"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="74" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="66"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="74" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="66"/>
     </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="74" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="64"/>
     </row>
-    <row r="25" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A25" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="65"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="66"/>
     </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="94"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="64"/>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="95"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="65"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="66"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="96"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="66"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="96"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="66"/>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="38" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="97"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="64"/>
     </row>
-    <row r="35" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="65"/>
     </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A36" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="82" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="64"/>
     </row>
-    <row r="37" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C2:C6"/>
@@ -3143,416 +3114,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="112" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="113" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="31"/>
+    <col min="1" max="1" width="9.19921875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" style="88" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="95" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" thickTop="1">
       <c r="A2" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17.399999999999999">
       <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="101"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="117"/>
+      <c r="D3" s="119"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="101"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="101"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="117"/>
+      <c r="D5" s="119"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="101"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="117"/>
+      <c r="D6" s="119"/>
+    </row>
+    <row r="7" spans="1:4" thickBot="1">
       <c r="A7" s="44" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="102"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="120"/>
+    </row>
+    <row r="8" spans="1:4" thickTop="1">
       <c r="A8" s="40" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="100"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="118"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999">
       <c r="A9" s="42" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="101"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="122"/>
+      <c r="D9" s="119"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.399999999999999">
       <c r="A10" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="101"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="122"/>
+      <c r="D10" s="119"/>
+    </row>
+    <row r="11" spans="1:4" thickBot="1">
       <c r="A11" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="102"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="123"/>
+      <c r="D11" s="120"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
       <c r="A12" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="83" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" thickTop="1">
       <c r="A13" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="100"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="91"/>
+      <c r="D13" s="118"/>
+    </row>
+    <row r="14" spans="1:4" ht="17.399999999999999">
       <c r="A14" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="101"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="92"/>
+      <c r="D14" s="119"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.399999999999999">
       <c r="A15" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="101"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="92"/>
+      <c r="D15" s="119"/>
+    </row>
+    <row r="16" spans="1:4" ht="17.399999999999999">
       <c r="A16" s="42" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="101"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="92"/>
+      <c r="D16" s="119"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.399999999999999">
       <c r="A17" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="101"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="92"/>
+      <c r="D17" s="119"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="101"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="92"/>
+      <c r="D18" s="119"/>
+    </row>
+    <row r="19" spans="1:4" thickBot="1">
       <c r="A19" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="102"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="93"/>
+      <c r="D19" s="120"/>
+    </row>
+    <row r="20" spans="1:4" thickTop="1">
       <c r="A20" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="115" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="17.399999999999999">
       <c r="A21" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="124"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="114"/>
+      <c r="D21" s="116"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="42" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="109"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="84"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="109"/>
-    </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="84"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A24" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="110"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="85"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A25" s="40" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="111"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="94"/>
+      <c r="D25" s="86"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="109"/>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="92"/>
+      <c r="D26" s="84"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="110"/>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="93"/>
+      <c r="D27" s="85"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A28" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="111"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="94"/>
+      <c r="D28" s="86"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="96" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="109"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="92"/>
+      <c r="D30" s="84"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="84" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="109"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="92"/>
+      <c r="D32" s="84"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="109"/>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="92"/>
+      <c r="D33" s="84"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="110"/>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="93"/>
+      <c r="D34" s="85"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" thickTop="1">
       <c r="A35" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="111"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="94"/>
+      <c r="D35" s="86"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="A36" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="110"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="D36" s="85"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C20:C21"/>

--- a/Docs/기능요구사항.xlsx
+++ b/Docs/기능요구사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\GitHub\Team project\Design_pattern_Java\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\Github\Team Project\Design_pattern_Java\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036D072-629D-43A8-AE1E-D6AFE7348F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79EF399-EA77-4122-B537-BAA921164F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
+    <workbookView xWindow="696" yWindow="696" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
   <sheets>
     <sheet name="색 분류" sheetId="2" r:id="rId1"/>
@@ -41,11 +41,21 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7CC751C1-88BE-4E01-AE84-924DCB8D206A}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,16 +65,26 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={50920224-2B1E-45A4-98A4-763D8B5AA82B}</author>
+    <author>tc={7CC751C1-88BE-4E01-AE84-924DCB8D206A}</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{50920224-2B1E-45A4-98A4-763D8B5AA82B}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{2B4D6554-190B-468E-9205-F12E9D04A4FB}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -72,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1"/>
@@ -150,26 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장은 필요 물품을 주문/주문 취소한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 차후 필요 물품의 개수를 추가/삭제한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 차후 필요 물품을 추가/수정/삭제한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 물품의 개수를 추가/삭제한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 물품을 추가/수정/삭제한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>사장은 메뉴를 추가/수정/삭제한다.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -720,10 +720,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장은 물품을 조회한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>직원 조회</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -740,10 +736,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장은 차후 필요 물품을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>주문 조회</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1246,34 +1238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>카드 결재</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>현금 결재</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>상품권 결재</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>결재가 완료되면 영수증을 출력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 상품권 결재를 입력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 현금 결재를 입력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 카드 결재를 입력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>카드 결제</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1386,7 +1350,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>구현</t>
+    <t>직원은 카드 결제를 입력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 현금 결제를 입력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 상품권 결제를 입력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>결제가 완료되면 영수증을 출력한다.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1394,18 +1370,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1463,7 +1439,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1537,7 +1535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1772,7 +1770,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1784,43 +1784,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -1938,26 +1901,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2051,9 +2001,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2099,9 +2046,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2111,15 +2055,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2129,15 +2064,15 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2147,187 +2082,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2684,415 +2652,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5023497-C90F-439D-A4EA-B0F186C397DA}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" thickTop="1">
+      <c r="C1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="111"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="116"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="111"/>
-    </row>
-    <row r="5" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="116"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="111"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="116"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="111"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1">
+        <v>49</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="116"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="117"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="110"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickTop="1">
-      <c r="A8" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="105"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="106"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="106"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A11" s="58" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="111"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="108"/>
+      <c r="D10" s="111"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
+      <c r="B11" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="112"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" thickTop="1">
-      <c r="A13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="110"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="106"/>
-    </row>
-    <row r="15" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="111"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="106"/>
-    </row>
-    <row r="16" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="111"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="106"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="111"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="106"/>
-    </row>
-    <row r="18" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="111"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="106"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1">
+        <v>36</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="111"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="107"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" thickTop="1">
+        <v>37</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="112"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="109"/>
-    </row>
-    <row r="22" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="114"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="66"/>
-    </row>
-    <row r="23" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="61"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="66"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
+        <v>40</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="64"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.600000000000001" thickTop="1">
+        <v>41</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="59"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="65"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="66"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="B26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="64"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" thickTop="1">
+        <v>43</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="59"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="65"/>
-    </row>
-    <row r="29" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="60"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="66"/>
-    </row>
-    <row r="31" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="66"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="25" t="s">
-        <v>82</v>
-      </c>
       <c r="B33" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="66"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="64"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" thickTop="1">
+      <c r="C33" s="74"/>
+      <c r="D33" s="61"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="59"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="65"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="60"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="64"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.600000000000001" thickTop="1"/>
+        <v>47</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="59"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C2:C6"/>
@@ -3112,427 +3080,356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69921875" style="87" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" style="88" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="31"/>
+    <col min="1" max="1" width="9.19921875" style="83" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" style="100" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" style="101" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" thickTop="1">
-      <c r="A2" s="40" t="s">
+      <c r="C1" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="125"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="125"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="125"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="125"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="126"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="124"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="125"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="125"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="D11" s="126"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="121"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="94"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="94"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="96"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="94"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="94"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="94"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B24" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="96"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999">
-      <c r="A3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="119"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="D26" s="96"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="119"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
-      <c r="A5" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="119"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
-      <c r="A6" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="119"/>
-    </row>
-    <row r="7" spans="1:4" thickBot="1">
-      <c r="A7" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="120"/>
-    </row>
-    <row r="8" spans="1:4" thickTop="1">
-      <c r="A8" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="118"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.399999999999999">
-      <c r="A9" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="119"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.399999999999999">
-      <c r="A10" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="119"/>
-    </row>
-    <row r="11" spans="1:4" thickBot="1">
-      <c r="A11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="120"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A12" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" thickTop="1">
-      <c r="A13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="118"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.399999999999999">
-      <c r="A14" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="119"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.399999999999999">
-      <c r="A15" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="119"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.399999999999999">
-      <c r="A16" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="119"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.399999999999999">
-      <c r="A17" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="119"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.399999999999999">
-      <c r="A18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="119"/>
-    </row>
-    <row r="19" spans="1:4" thickBot="1">
-      <c r="A19" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="120"/>
-    </row>
-    <row r="20" spans="1:4" thickTop="1">
-      <c r="A20" s="41" t="s">
+      <c r="B27" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.399999999999999">
-      <c r="A21" s="42" t="s">
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="116"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="84"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="84"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A24" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="85"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.600000000000001" thickTop="1">
-      <c r="A25" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="86"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="84"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="85"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" thickTop="1">
-      <c r="A28" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="86"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="84"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="84"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="84"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="85"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" thickTop="1">
-      <c r="A35" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="86"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A36" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="85"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.600000000000001" thickTop="1"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="96"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
+  <mergeCells count="6">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D13:D19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/기능요구사항.xlsx
+++ b/Docs/기능요구사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\Github\Team Project\Design_pattern_Java\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nifskorea\Desktop\공부동기화파일\디자인패턴\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79EF399-EA77-4122-B537-BAA921164F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C43F6-8F8F-4442-AC34-15A96D9FCC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="696" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
   <sheets>
     <sheet name="색 분류" sheetId="2" r:id="rId1"/>
@@ -41,21 +41,11 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7CC751C1-88BE-4E01-AE84-924DCB8D206A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="128"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -65,26 +55,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7CC751C1-88BE-4E01-AE84-924DCB8D206A}</author>
+    <author>tc={7CC751C1-88BE-4E02-AE84-924DCB8D206A}</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{2B4D6554-190B-468E-9205-F12E9D04A4FB}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2B4D6554-190B-468E-9205-F12E9D04A4FB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="128"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -92,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1"/>
@@ -191,14 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장은 테이블을 추가/삭제한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 테이블 번호를 추가/삭제한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>사장은 직원을 추가/변경/제거한다.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,10 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장은 직원의 월급을 기입/변경한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>사장은 모든 직원의 월급을 조회한다.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -992,14 +960,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>직원은 자신의 출근 상태를 등록한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 자신의 퇴근 상태를 등록한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1210,10 +1170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장은 직원 출근/퇴근을 변경한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>스트레티지 패턴</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,6 +1319,150 @@
   </si>
   <si>
     <t>결제가 완료되면 영수증을 출력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>테이블 별 주문 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직원은 테이블에 주문을 적용한다. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 출근/퇴근을 변경한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>주문관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0102</t>
+  </si>
+  <si>
+    <t>SFR-0103</t>
+  </si>
+  <si>
+    <t>SFR-0104</t>
+  </si>
+  <si>
+    <t>SFR-0105</t>
+  </si>
+  <si>
+    <t>SFR-0106</t>
+  </si>
+  <si>
+    <t>SFR-0200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>결제 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>메뉴 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>매출 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFR-0201</t>
+  </si>
+  <si>
+    <t>SFR-0202</t>
+  </si>
+  <si>
+    <t>SFR-0203</t>
+  </si>
+  <si>
+    <t>SFR-0204</t>
+  </si>
+  <si>
+    <t>SFR-0301</t>
+  </si>
+  <si>
+    <t>SFR-0401</t>
+  </si>
+  <si>
+    <t>SFR-0402</t>
+  </si>
+  <si>
+    <t>SFR-0403</t>
+  </si>
+  <si>
+    <t>SFR-0404</t>
+  </si>
+  <si>
+    <t>SFR-0405</t>
+  </si>
+  <si>
+    <t>SFR-0501</t>
+  </si>
+  <si>
+    <t>SFR-0502</t>
+  </si>
+  <si>
+    <t>SFR-0503</t>
+  </si>
+  <si>
+    <t>SFR-0504</t>
+  </si>
+  <si>
+    <t>SFR-0505</t>
+  </si>
+  <si>
+    <t>SFR-0506</t>
+  </si>
+  <si>
+    <t>SFR-0601</t>
+  </si>
+  <si>
+    <t>SFR-0602</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Temp 임시</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1467,7 +1567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,8 +1634,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1901,13 +2007,441 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2025,36 +2559,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2145,77 +2652,155 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2262,13 +2847,28 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,22 +2880,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2641,7 +3226,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B6" dT="2022-05-21T07:31:52.03" personId="{64FC48D3-7068-46B9-9772-5BCAF94C40B5}" id="{50920224-2B1E-45A4-98A4-763D8B5AA82B}">
+  <threadedComment ref="C7" dT="2022-05-21T07:31:52.03" personId="{64FC48D3-7068-46B9-9772-5BCAF94C40B5}" id="{7CC751C1-88BE-4E02-AE84-924DCB8D206A}">
     <text>주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</text>
   </threadedComment>
@@ -2652,415 +3237,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5023497-C90F-439D-A4EA-B0F186C397DA}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="A2:D36"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="57" customWidth="1"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="115" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="116"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="133"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="116"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="133"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="116"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="133"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="116"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="133"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="134"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="117"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="49" t="s">
+      <c r="C8" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="127"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="128"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="128"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="110"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="111"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="111"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="112"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="126"/>
+      <c r="D11" s="129"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="110"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="127"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="111"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="128"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="111"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="128"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="111"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="128"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="111"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="128"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="111"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="128"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="112"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="129"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="114"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="C21" s="123"/>
+      <c r="D21" s="131"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="61"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="61"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="52"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="59"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="60"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="60"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="61"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="25" t="s">
+      <c r="B33" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="52"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="37" t="s">
-        <v>76</v>
-      </c>
       <c r="B34" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="59"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="50"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="60"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="59"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>44</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="50"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C2:C6"/>
@@ -3080,356 +3665,495 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="83" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69921875" style="100" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" style="101" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="83"/>
+    <col min="1" max="1" width="7.25" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="72" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="74" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="75" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="C1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="136"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="145"/>
+      <c r="E5" s="136"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="136"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="145"/>
+      <c r="E7" s="136"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="136"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="146"/>
+      <c r="E11" s="136"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="C12" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="146"/>
+      <c r="E12" s="136"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="146"/>
+      <c r="E13" s="136"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="141"/>
+      <c r="E18" s="143"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="135"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="136"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="137"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="138"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="139"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="95"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="83"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="117" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="124" t="s">
+      <c r="C31" s="88" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="125"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="125"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="125"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="125"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="126"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="124"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="125"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="125"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="126"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="120" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="121"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="94"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="94"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="96"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="94"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="94"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="94"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="96"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="96"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="96"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="D31" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
+  <mergeCells count="8">
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/기능요구사항.xlsx
+++ b/Docs/기능요구사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nifskorea\Desktop\공부동기화파일\디자인패턴\요구사항\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\Github\Team Project\Design_pattern_Java\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C43F6-8F8F-4442-AC34-15A96D9FCC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF611D8-67C4-4316-AEFE-20D8AEB38967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
   <sheets>
     <sheet name="색 분류" sheetId="2" r:id="rId1"/>
@@ -41,11 +41,21 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7CC751C1-88BE-4E01-AE84-924DCB8D206A}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -60,11 +70,21 @@
   <commentList>
     <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2B4D6554-190B-468E-9205-F12E9D04A4FB}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1470,7 +1490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,7 +1661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1855,17 +1875,6 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2008,33 +2017,107 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -2045,107 +2128,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -2159,199 +2142,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -2360,46 +2159,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -2408,25 +2183,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2435,13 +2202,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2565,21 +2427,21 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2589,299 +2451,257 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3237,19 +3057,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5023497-C90F-439D-A4EA-B0F186C397DA}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="47" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3263,61 +3083,61 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="133"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="85"/>
+      <c r="D3" s="97"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="133"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="85"/>
+      <c r="D4" s="97"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="133"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="85"/>
+      <c r="D5" s="97"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="133"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="85"/>
+      <c r="D6" s="97"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -3327,51 +3147,51 @@
       <c r="C7" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="134"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="98"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickTop="1">
       <c r="A8" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="127"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="91"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="128"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="89"/>
+      <c r="D9" s="92"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="128"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="89"/>
+      <c r="D10" s="92"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1">
       <c r="A11" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="129"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="90"/>
+      <c r="D11" s="93"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -3385,7 +3205,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" thickTop="1">
       <c r="A13" s="35" t="s">
         <v>48</v>
       </c>
@@ -3393,9 +3213,9 @@
         <v>56</v>
       </c>
       <c r="C13" s="57"/>
-      <c r="D13" s="127"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="91"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -3403,9 +3223,9 @@
         <v>30</v>
       </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="128"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="92"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
@@ -3413,9 +3233,9 @@
         <v>31</v>
       </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="128"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="92"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -3423,9 +3243,9 @@
         <v>57</v>
       </c>
       <c r="C16" s="58"/>
-      <c r="D16" s="128"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="92"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -3433,9 +3253,9 @@
         <v>32</v>
       </c>
       <c r="C17" s="58"/>
-      <c r="D17" s="128"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="92"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -3443,9 +3263,9 @@
         <v>33</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="128"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="92"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3453,33 +3273,33 @@
         <v>34</v>
       </c>
       <c r="C19" s="59"/>
-      <c r="D19" s="129"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="93"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickTop="1">
       <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="131"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="87"/>
+      <c r="D21" s="95"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="15" t="s">
         <v>55</v>
       </c>
@@ -3491,7 +3311,7 @@
       </c>
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -3503,7 +3323,7 @@
       </c>
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>14</v>
       </c>
@@ -3515,7 +3335,7 @@
       </c>
       <c r="D24" s="50"/>
     </row>
-    <row r="25" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18" thickTop="1">
       <c r="A25" s="19" t="s">
         <v>50</v>
       </c>
@@ -3525,7 +3345,7 @@
       <c r="C25" s="61"/>
       <c r="D25" s="51"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="31" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3355,7 @@
       <c r="C26" s="62"/>
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18" thickBot="1">
       <c r="A27" s="21" t="s">
         <v>16</v>
       </c>
@@ -3545,7 +3365,7 @@
       <c r="C27" s="63"/>
       <c r="D27" s="50"/>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18" thickTop="1">
       <c r="A28" s="23" t="s">
         <v>49</v>
       </c>
@@ -3555,7 +3375,7 @@
       <c r="C28" s="64"/>
       <c r="D28" s="51"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -3569,7 +3389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="25" t="s">
         <v>64</v>
       </c>
@@ -3579,7 +3399,7 @@
       <c r="C30" s="65"/>
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="25" t="s">
         <v>65</v>
       </c>
@@ -3593,7 +3413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="25" t="s">
         <v>70</v>
       </c>
@@ -3603,7 +3423,7 @@
       <c r="C32" s="65"/>
       <c r="D32" s="52"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="25" t="s">
         <v>72</v>
       </c>
@@ -3613,7 +3433,7 @@
       <c r="C33" s="65"/>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18" thickBot="1">
       <c r="A34" s="37" t="s">
         <v>73</v>
       </c>
@@ -3623,7 +3443,7 @@
       <c r="C34" s="66"/>
       <c r="D34" s="50"/>
     </row>
-    <row r="35" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" thickTop="1">
       <c r="A35" s="27" t="s">
         <v>18</v>
       </c>
@@ -3633,7 +3453,7 @@
       <c r="C35" s="67"/>
       <c r="D35" s="51"/>
     </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="18" thickBot="1">
       <c r="A36" s="29" t="s">
         <v>22</v>
       </c>
@@ -3645,7 +3465,7 @@
       </c>
       <c r="D36" s="50"/>
     </row>
-    <row r="37" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:4" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C2:C6"/>
@@ -3667,482 +3487,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="72" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="72" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="74" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="75" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="72"/>
+    <col min="1" max="1" width="7.19921875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="72" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:5" ht="18" thickBot="1">
+      <c r="A1" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="102" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:5" ht="18" thickBot="1">
+      <c r="A2" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="103" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="104" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="136"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="D4" s="117"/>
+      <c r="E4" s="104"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="136"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="90" t="s">
+      <c r="D5" s="117"/>
+      <c r="E5" s="104"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="136"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="104"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="136"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="104"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1">
+      <c r="A8" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="136"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="102" t="s">
+      <c r="E8" s="104"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickBot="1">
+      <c r="A9" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="105" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="136" t="s">
+      <c r="E10" s="104" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="136"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="104"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="136"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="99" t="s">
+      <c r="D12" s="119"/>
+      <c r="E12" s="104"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickBot="1">
+      <c r="A13" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="136"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
+      <c r="D13" s="119"/>
+      <c r="E13" s="104"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickBot="1">
+      <c r="A14" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="103" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
+    <row r="15" spans="1:5" ht="18" thickBot="1">
+      <c r="A15" s="80" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="106" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="102" t="s">
+    <row r="16" spans="1:5" ht="18" thickBot="1">
+      <c r="A16" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="103" t="s">
+      <c r="C16" s="130"/>
+      <c r="D16" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="107" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="143"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="98" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="135"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="98" t="s">
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="136"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="99" t="s">
+      <c r="E20" s="104"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1">
+      <c r="A21" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="137"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="102" t="s">
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1">
+      <c r="A22" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="103" t="s">
+      <c r="C22" s="130"/>
+      <c r="D22" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="83"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="98" t="s">
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="98" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="138"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="98" t="s">
+      <c r="E25" s="109"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="139"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="98" t="s">
+      <c r="E26" s="111"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="99" t="s">
+    <row r="28" spans="1:5" ht="18" thickBot="1">
+      <c r="A28" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="95"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="102" t="s">
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1">
+      <c r="A29" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="103" t="s">
+      <c r="C29" s="130"/>
+      <c r="D29" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="83"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="99" t="s">
+      <c r="E30" s="75"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1">
+      <c r="A31" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="79"/>
+      <c r="E31" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
